--- a/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
+++ b/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">

--- a/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
+++ b/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2077,7 +2077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3378,12 +3378,288 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
           <t>POINT (87.454185 53.942488)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine, Russia, M1518</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>M1518.P15</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>ventilation system</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>shaft</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>45751</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Identified visually from Google Earth Pro satellite imagery.</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Possible ventilation shaft </t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>extracted</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>M1518</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Rusugolholding LLC [100%]</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Stirakia Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gem.wiki/Polosukhinskaya_coal_mine</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>Nov 26, 2025</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>POINT (87.326559 53.920985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine, Russia, M1518</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>M1518.P16</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>degasification system</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>drainage station</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>45457</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Identified visually from Google Earth Pro satellite imagery.</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Possible gas drainage station</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>extracted</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>M1518</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>Rusugolholding LLC [100%]</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Stirakia Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gem.wiki/Polosukhinskaya_coal_mine</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr"/>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine</t>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="R16" s="0" t="inlineStr">
+        <is>
+          <t>Nov 26, 2025</t>
+        </is>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
+        <is>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+        </is>
+      </c>
+      <c r="T16" s="0" t="inlineStr">
+        <is>
+          <t>POINT (87.405355 53.954073)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine, Russia, M1518</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>M1518.P17</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>degasification system</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>drainage station</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>45457</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Identified visually from Google Earth Pro satellite imagery.</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Possible gas drainage station</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>extracted</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>M1518</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>Rusugolholding LLC [100%]</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Stirakia Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gem.wiki/Polosukhinskaya_coal_mine</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr"/>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>Polosukhinskaya Coal Mine</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="R17" s="0" t="inlineStr">
+        <is>
+          <t>Nov 26, 2025</t>
+        </is>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
+        <is>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+        </is>
+      </c>
+      <c r="T17" s="0" t="inlineStr">
+        <is>
+          <t>POINT (87.406507 53.952673)</t>
         </is>
       </c>
     </row>

--- a/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
+++ b/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">

--- a/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
+++ b/Polosukhinskaya Coal Mine, Russia, M1518.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Polosukhinskaya Coal Mine, Russia, M1518, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
